--- a/output.xlsx
+++ b/output.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Пшен оз</t>
+          <t>Пар</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Соя</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Соя</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Пар</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Соя</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Пар</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Пар</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Соя</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Пшен оз</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Пшен оз</t>
+          <t>Соя</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Соя</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Пар</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Свекла сах</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Соя</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Соя</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Свекла сах</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Свекла сах</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Соя</t>
+          <t>Свекла сах</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Пшен оз</t>
+          <t>Пар</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Соя</t>
+          <t>Пар</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Пар</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Соя</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Соя</t>
+          <t>Пар</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Пар</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Соя</t>
+          <t>Пар</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Пар</t>
+          <t>Свекла сах</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Соя</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Пшен оз</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Пар</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Свекла сах</t>
+          <t>Пар</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Пар</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Пшен оз</t>
+          <t>Соя</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Свекла сах</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Пар</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ячмень пив</t>
+          <t>Соя</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Пшен оз</t>
+          <t>Свекла сах</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Пшен оз</t>
+          <t>Пар</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Пшен оз</t>
+          <t>Ячмень пив</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380609832</v>
+        <v>396367872</v>
       </c>
     </row>
   </sheetData>
